--- a/appb3/Data Files.xlsx
+++ b/appb3/Data Files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edonnea\Documents\Data Analytics\R\RANapp\appb3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CDFA38-75EA-4C0F-ADBB-A1A54D89BEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5DAA20-9757-446D-A07A-B4911F85D173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B3EC32E0-5B03-4208-8021-94534B0B0B81}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{B3EC32E0-5B03-4208-8021-94534B0B0B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,12 +363,6 @@
     <t>Converted to csv format from Released Issue 1.0. Always make sure mapping columns are carried over and use "0" instead of "NA" for not applicable. G6E0000XXXXX means no GSM, 36E0000XXXXX means no UMTS.</t>
   </si>
   <si>
-    <t>BomList_PA4_B3.csv</t>
-  </si>
-  <si>
-    <t>BomList_SF_PA4_B3.csv</t>
-  </si>
-  <si>
     <t>HLD connection diagrams B3 newbuild_PA2.pdf</t>
   </si>
   <si>
@@ -376,6 +370,12 @@
   </si>
   <si>
     <t>HLD connection diagrams B2-B3_PA2.pdf</t>
+  </si>
+  <si>
+    <t>BomList_SF_PA5_B3.csv</t>
+  </si>
+  <si>
+    <t>BomList_PA5_B3.csv</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>79</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
@@ -1094,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>94</v>
@@ -1108,7 +1108,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>94</v>
@@ -1122,7 +1122,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>94</v>

--- a/appb3/Data Files.xlsx
+++ b/appb3/Data Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edonnea\Documents\Data Analytics\R\RANapp\appb3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5DAA20-9757-446D-A07A-B4911F85D173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8B381-22EB-462C-A071-8C536BCFF1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{B3EC32E0-5B03-4208-8021-94534B0B0B81}"/>
   </bookViews>
@@ -372,10 +372,10 @@
     <t>HLD connection diagrams B2-B3_PA2.pdf</t>
   </si>
   <si>
-    <t>BomList_SF_PA5_B3.csv</t>
-  </si>
-  <si>
-    <t>BomList_PA5_B3.csv</t>
+    <t>BomList_PA6_B3.csv</t>
+  </si>
+  <si>
+    <t>BomList_SF_PA6_B3.csv</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>79</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>

--- a/appb3/Data Files.xlsx
+++ b/appb3/Data Files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edonnea\Documents\Data Analytics\R\RANapp\appb3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8B381-22EB-462C-A071-8C536BCFF1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9623A68D-527E-48A2-928F-B3E425DC2964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{B3EC32E0-5B03-4208-8021-94534B0B0B81}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B3EC32E0-5B03-4208-8021-94534B0B0B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,19 +363,19 @@
     <t>Converted to csv format from Released Issue 1.0. Always make sure mapping columns are carried over and use "0" instead of "NA" for not applicable. G6E0000XXXXX means no GSM, 36E0000XXXXX means no UMTS.</t>
   </si>
   <si>
-    <t>HLD connection diagrams B3 newbuild_PA2.pdf</t>
-  </si>
-  <si>
-    <t>HLD connection diagrams B1-B3_PA2.pdf</t>
-  </si>
-  <si>
-    <t>HLD connection diagrams B2-B3_PA2.pdf</t>
-  </si>
-  <si>
     <t>BomList_PA6_B3.csv</t>
   </si>
   <si>
     <t>BomList_SF_PA6_B3.csv</t>
+  </si>
+  <si>
+    <t>HLD connection diagrams B3 newbuild_PA3.pdf</t>
+  </si>
+  <si>
+    <t>HLD connection diagrams B1-B3_PA3.pdf</t>
+  </si>
+  <si>
+    <t>HLD connection diagrams B2-B3_PA3.pdf</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>79</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
@@ -1094,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>94</v>
@@ -1108,7 +1108,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
         <v>94</v>
@@ -1122,7 +1122,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
         <v>94</v>

--- a/appb3/Data Files.xlsx
+++ b/appb3/Data Files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edonnea\Documents\Data Analytics\R\RANapp\appb3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9623A68D-527E-48A2-928F-B3E425DC2964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300F457-44DB-431D-B5D8-3FB3A133BEA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B3EC32E0-5B03-4208-8021-94534B0B0B81}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{B3EC32E0-5B03-4208-8021-94534B0B0B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>Variable name</t>
   </si>
@@ -297,12 +297,6 @@
     <t>relevant Totals columns only</t>
   </si>
   <si>
-    <t>Qcode_Selector_B3_v7.xlsx</t>
-  </si>
-  <si>
-    <t>QcodeTranslator_v6.xlsx</t>
-  </si>
-  <si>
     <t>filtered version using a "Keep"/"Lose" IF function specifying only required Baseline + UG option columns</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>UKRE_19_142 Ericsson B2 to B3 Site Upgrades SCD.pdf</t>
   </si>
   <si>
-    <t>UKRE_19_143 Ericsson B3 New Build SCD.pdf</t>
-  </si>
-  <si>
     <t>Inside "HLDs_latest_DDMMYYYY" folder, the file name must have spaces removed for www folder</t>
   </si>
   <si>
@@ -354,28 +345,49 @@
     <t>No representation for Beacon 3 as of 04/02/2021</t>
   </si>
   <si>
-    <t>ProductInventory_B3.csv and PowCons_B3.xlsx</t>
-  </si>
-  <si>
-    <t>DS6456_Issue1_Released.csv</t>
-  </si>
-  <si>
-    <t>Converted to csv format from Released Issue 1.0. Always make sure mapping columns are carried over and use "0" instead of "NA" for not applicable. G6E0000XXXXX means no GSM, 36E0000XXXXX means no UMTS.</t>
-  </si>
-  <si>
-    <t>BomList_PA6_B3.csv</t>
-  </si>
-  <si>
-    <t>BomList_SF_PA6_B3.csv</t>
-  </si>
-  <si>
-    <t>HLD connection diagrams B3 newbuild_PA3.pdf</t>
-  </si>
-  <si>
-    <t>HLD connection diagrams B1-B3_PA3.pdf</t>
-  </si>
-  <si>
-    <t>HLD connection diagrams B2-B3_PA3.pdf</t>
+    <t>Data Source Type</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>HLD connection diagrams B3 newbuild_PA4.pdf</t>
+  </si>
+  <si>
+    <t>HLD connection diagrams B1-B3_PA5.pdf</t>
+  </si>
+  <si>
+    <t>HLD connection diagrams B2-B3_PA5.pdf</t>
+  </si>
+  <si>
+    <t>ProductInventory_B3.csv and PowCons_B3_v2.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\edonnea\Documents\UK_TEF\Beacon 3\PowerConsumption\ConfigTool\ConfigTool_Master_PC_v15_calc.xlsx</t>
+  </si>
+  <si>
+    <t>UKRE_19_143 Ericsson B3 New Build SCD Issue 1.2.pdf</t>
+  </si>
+  <si>
+    <t>QcodeTranslator_v12.xlsx</t>
+  </si>
+  <si>
+    <t>Qcode_Selector_B3_v11.xlsx</t>
+  </si>
+  <si>
+    <t>Converted to csv format from DRAFT Issue 1.3_PA4. Always make sure mapping columns are carried over and use "0" instead of "NA" for not applicable. G6E0000XXXXX means no GSM, 36E0000XXXXX means no UMTS.</t>
+  </si>
+  <si>
+    <t>DS6456_Issue1.3_PA4.csv</t>
+  </si>
+  <si>
+    <t>BomList_PA13_B3.csv</t>
+  </si>
+  <si>
+    <t>BomList_SF_PA13_B3.csv</t>
   </si>
 </sst>
 </file>
@@ -749,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E364222-EAFC-4E0F-A8E5-A0065A3B68FC}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,10 +772,11 @@
     <col min="1" max="1" width="19.08984375" customWidth="1"/>
     <col min="2" max="2" width="68.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
-    <col min="4" max="4" width="175.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="175.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,10 +787,13 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -785,13 +801,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -801,8 +820,11 @@
       <c r="C3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -810,13 +832,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -824,13 +849,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -840,8 +868,11 @@
       <c r="C6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -851,8 +882,11 @@
       <c r="C7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -862,8 +896,11 @@
       <c r="C8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -873,8 +910,11 @@
       <c r="C9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -884,8 +924,11 @@
       <c r="C10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -896,10 +939,13 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -910,10 +956,13 @@
         <v>76</v>
       </c>
       <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -923,8 +972,11 @@
       <c r="C13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -935,10 +987,13 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -946,10 +1001,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -957,10 +1015,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -968,13 +1029,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -982,13 +1046,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -996,13 +1063,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1010,13 +1080,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1024,13 +1097,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1038,13 +1114,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1052,13 +1131,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1066,13 +1148,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1080,13 +1165,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1094,13 +1182,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1108,13 +1199,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1122,13 +1216,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1136,13 +1233,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1150,13 +1250,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1164,13 +1267,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1178,10 +1284,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1189,10 +1298,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1200,10 +1315,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1214,10 +1332,13 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -1228,10 +1349,13 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1242,7 +1366,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
